--- a/biology/Botanique/Virectaria_procumbens/Virectaria_procumbens.xlsx
+++ b/biology/Botanique/Virectaria_procumbens/Virectaria_procumbens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virectaria procumbens (Sm.) Bremek. est une espèce de plantes rampantes de la famille des Rubiaceae présentant des fleurs blanches poussant dans les herbes et dans les forêts. Cette plante peut atteindre jusqu'à 30 cm de haut. Elle fut décrite par James Edward Smith.
 </t>
